--- a/data/trans_bre/P2A_senso_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,82</t>
+          <t>-2,16; 0,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1,49</t>
+          <t>-1,06; 1,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,27</t>
+          <t>-1,3; 1,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,72</t>
+          <t>0,8; 4,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,95; 34,85</t>
+          <t>-51,24; 26,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 101,68</t>
+          <t>-36,28; 110,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-56,65; 133,0</t>
+          <t>-55,17; 149,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,31; 210,05</t>
+          <t>12,58; 217,9</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,89</t>
+          <t>-0,35; 0,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 1,0</t>
+          <t>-0,63; 1,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,77</t>
+          <t>-0,53; 0,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 20,68</t>
+          <t>-0,12; 23,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,71; 200,83</t>
+          <t>-38,68; 199,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,15; 83,48</t>
+          <t>-34,66; 98,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,12; 130,22</t>
+          <t>-46,47; 134,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 1159,13</t>
+          <t>-5,84; 1231,62</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,26</t>
+          <t>-1,1; 1,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 4,08</t>
+          <t>-0,32; 4,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 0,51</t>
+          <t>-1,25; 0,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,86</t>
+          <t>-1,69; 0,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; inf</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,47; 613,78</t>
+          <t>-29,37; 908,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-59,53; 77,15</t>
+          <t>-59,02; 75,58</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,67</t>
+          <t>-0,54; 0,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,2</t>
+          <t>-0,28; 1,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,54</t>
+          <t>-0,52; 0,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 11,83</t>
+          <t>0,52; 16,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 55,16</t>
+          <t>-28,89; 50,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 92,86</t>
+          <t>-15,08; 81,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 74,79</t>
+          <t>-38,9; 74,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,74; 693,3</t>
+          <t>20,66; 690,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_senso_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>82,94%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,72</t>
+          <t>0,65; 4,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,58; 217,9</t>
+          <t>11,14; 214,98</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,73%</t>
+          <t>46,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>216,47%</t>
+          <t>442,39%</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 0,91</t>
+          <t>-0,29; 0,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 23,85</t>
+          <t>-0,07; 38,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,68; 199,06</t>
+          <t>-33,61; 208,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 1231,62</t>
+          <t>-0,72; 2420,95</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -835,12 +835,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-14,51%</t>
+          <t>-11,92%</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,1</t>
+          <t>-0,94; 1,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,94</t>
+          <t>-1,44; 0,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-59,02; 75,58</t>
+          <t>-57,35; 88,69</t>
         </is>
       </c>
     </row>
@@ -920,27 +920,27 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,05</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>148,87%</t>
+          <t>281,41%</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 0,65</t>
+          <t>-0,48; 0,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -983,12 +983,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 16,19</t>
+          <t>0,5; 27,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,89; 50,46</t>
+          <t>-26,27; 57,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,66; 690,03</t>
+          <t>21,94; 1349,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_senso_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Estudios-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad sensorial</t>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,58</t>
+          <t>-2,22; 0,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,46</t>
+          <t>-1,21; 1,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,27</t>
+          <t>-1,37; 1,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,68</t>
+          <t>0,7; 4,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,24; 26,48</t>
+          <t>-51,32; 23,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,28; 110,6</t>
+          <t>-39,37; 104,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-55,17; 149,32</t>
+          <t>-58,73; 128,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,14; 214,98</t>
+          <t>14,51; 221,52</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,99</t>
+          <t>-0,34; 1,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,11</t>
+          <t>-0,68; 1,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,77</t>
+          <t>-0,5; 0,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 38,05</t>
+          <t>-0,06; 34,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 208,11</t>
+          <t>-38,99; 215,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,66; 98,08</t>
+          <t>-35,38; 96,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,47; 134,12</t>
+          <t>-44,07; 122,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2420,95</t>
+          <t>-2,47; 1869,63</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,47</t>
+          <t>-0,91; 1,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,46</t>
+          <t>-0,18; 4,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,36</t>
+          <t>-1,25; 0,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,97</t>
+          <t>-1,74; 0,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-88,0; 846,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,37; 908,98</t>
+          <t>-29,14; 769,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-57,35; 88,69</t>
+          <t>-60,66; 89,41</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,73</t>
+          <t>-0,57; 0,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,14</t>
+          <t>-0,2; 1,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,55</t>
+          <t>-0,47; 0,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 27,62</t>
+          <t>0,45; 23,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 57,48</t>
+          <t>-28,32; 56,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 81,43</t>
+          <t>-10,5; 84,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,9; 74,85</t>
+          <t>-36,64; 78,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,94; 1349,8</t>
+          <t>18,4; 1140,78</t>
         </is>
       </c>
     </row>
